--- a/biology/Médecine/Asseman_Koua_Médard/Asseman_Koua_Médard.xlsx
+++ b/biology/Médecine/Asseman_Koua_Médard/Asseman_Koua_Médard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asseman_Koua_M%C3%A9dard</t>
+          <t>Asseman_Koua_Médard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asseman Koua Médard, né le 7 Juin 1979, est un médecin psychiatre, hypnothérapeute et universitaire ivoirien. maître de conférences agrégé en psychiatrie à l'Université Alassane Ouattara de Bouaké. Depuis 2022, il est le directeur coordonnateur du Programme national de santé mentale de Côte d'Ivoire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asseman Koua Médard, né le 7 Juin 1979, est un médecin psychiatre, hypnothérapeute et universitaire ivoirien. maître de conférences agrégé en psychiatrie à l'Université Alassane Ouattara de Bouaké. Depuis 2022, il est le directeur coordonnateur du Programme national de santé mentale de Côte d'Ivoire.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asseman_Koua_M%C3%A9dard</t>
+          <t>Asseman_Koua_Médard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asseman Koua Médard, de nationalité ivoirienne, naît le 7 juin 1979[2],[3].  Il est agrégé en psychiatrie de l'université Alassane Ouattara de Bouaké. 
-Initiateur du projet pilote de renforcement du système et service de santé mentale depuis 2015, il appui techniquement le programme national de santé mentale ivoirien en thème de développement d'initiatives communautés et d'intégration des soins de santé mentale dans la santé publique. Il fut le point focal du centre collaborateur de l'Organisation Mondiale de la Santé pour la santé mentale[4]. Il fait la promotion de la santé mentale en Côte d'Ivoire et défend la prévention du suicide chez les adolescents et les jeunes[5],[6],[4]. 
-De 2019 à 2022, il est le directeur de l'hôpital psychiatrique de Bouaké. A partir de 2022, le Professeur Koua Médard est nommé directeur coordonnateur du Programme national de santé mentale de Côte d'Ivoire[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asseman Koua Médard, de nationalité ivoirienne, naît le 7 juin 1979,.  Il est agrégé en psychiatrie de l'université Alassane Ouattara de Bouaké. 
+Initiateur du projet pilote de renforcement du système et service de santé mentale depuis 2015, il appui techniquement le programme national de santé mentale ivoirien en thème de développement d'initiatives communautés et d'intégration des soins de santé mentale dans la santé publique. Il fut le point focal du centre collaborateur de l'Organisation Mondiale de la Santé pour la santé mentale. Il fait la promotion de la santé mentale en Côte d'Ivoire et défend la prévention du suicide chez les adolescents et les jeunes. 
+De 2019 à 2022, il est le directeur de l'hôpital psychiatrique de Bouaké. A partir de 2022, le Professeur Koua Médard est nommé directeur coordonnateur du Programme national de santé mentale de Côte d'Ivoire. 
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asseman_Koua_M%C3%A9dard</t>
+          <t>Asseman_Koua_Médard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Asseman Médard Koua, Survey of non-conventional mental health care facilities in Côte d’Ivoire: first stage (lire en ligne)
 Asseman Médard Koua, La pratique de l'hypnose en cure d'addictologie, Éditions Universitaires Européennes (ISBN 9783639540482)</t>
